--- a/basicos_resultados_BEBÉ NIÑA.xlsx
+++ b/basicos_resultados_BEBÉ NIÑA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E349"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3712,11 +3712,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="157">
@@ -3733,11 +3733,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="158">
@@ -3745,7 +3745,7 @@
         <v>45017</v>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3754,11 +3754,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="159">
@@ -3766,7 +3766,7 @@
         <v>45017</v>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3775,11 +3775,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="160">
@@ -3787,7 +3787,7 @@
         <v>45047</v>
       </c>
       <c r="B160" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3796,11 +3796,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="161">
@@ -3808,7 +3808,7 @@
         <v>45078</v>
       </c>
       <c r="B161" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3817,11 +3817,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="162">
@@ -3829,7 +3829,7 @@
         <v>45108</v>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3838,11 +3838,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="163">
@@ -3850,7 +3850,7 @@
         <v>45139</v>
       </c>
       <c r="B163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3859,11 +3859,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="164">
@@ -3871,7 +3871,7 @@
         <v>45170</v>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3880,11 +3880,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="165">
@@ -3892,7 +3892,7 @@
         <v>45200</v>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3901,11 +3901,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="166">
@@ -3913,7 +3913,7 @@
         <v>45231</v>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3922,11 +3922,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="167">
@@ -3934,7 +3934,7 @@
         <v>45261</v>
       </c>
       <c r="B167" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3943,11 +3943,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="168">
@@ -3955,7 +3955,7 @@
         <v>45292</v>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3964,11 +3964,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="169">
@@ -3976,7 +3976,7 @@
         <v>45323</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3985,11 +3985,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="170">
@@ -3997,7 +3997,7 @@
         <v>44986</v>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4006,11 +4006,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="171">
@@ -4018,7 +4018,7 @@
         <v>44986</v>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4027,11 +4027,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="172">
@@ -4039,7 +4039,7 @@
         <v>45017</v>
       </c>
       <c r="B172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4048,11 +4048,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="173">
@@ -4060,7 +4060,7 @@
         <v>45017</v>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4069,11 +4069,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="174">
@@ -4081,7 +4081,7 @@
         <v>45047</v>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4090,11 +4090,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="175">
@@ -4102,7 +4102,7 @@
         <v>45078</v>
       </c>
       <c r="B175" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4111,11 +4111,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="176">
@@ -4123,7 +4123,7 @@
         <v>45108</v>
       </c>
       <c r="B176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4132,11 +4132,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="177">
@@ -4144,7 +4144,7 @@
         <v>45139</v>
       </c>
       <c r="B177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4153,11 +4153,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="178">
@@ -4165,7 +4165,7 @@
         <v>45170</v>
       </c>
       <c r="B178" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="179">
@@ -4186,7 +4186,7 @@
         <v>45200</v>
       </c>
       <c r="B179" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4195,11 +4195,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="180">
@@ -4207,7 +4207,7 @@
         <v>45231</v>
       </c>
       <c r="B180" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4216,11 +4216,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="181">
@@ -4228,7 +4228,7 @@
         <v>45261</v>
       </c>
       <c r="B181" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4237,11 +4237,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="182">
@@ -4249,7 +4249,7 @@
         <v>45292</v>
       </c>
       <c r="B182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4258,11 +4258,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="183">
@@ -4270,7 +4270,7 @@
         <v>45323</v>
       </c>
       <c r="B183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4279,11 +4279,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAÑA CORTA</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="184">
@@ -4291,7 +4291,7 @@
         <v>44986</v>
       </c>
       <c r="B184" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4300,11 +4300,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="185">
@@ -4312,7 +4312,7 @@
         <v>44986</v>
       </c>
       <c r="B185" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4321,11 +4321,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="186">
@@ -4333,7 +4333,7 @@
         <v>45017</v>
       </c>
       <c r="B186" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4342,11 +4342,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="187">
@@ -4354,7 +4354,7 @@
         <v>45017</v>
       </c>
       <c r="B187" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4363,11 +4363,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="188">
@@ -4375,7 +4375,7 @@
         <v>45047</v>
       </c>
       <c r="B188" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4384,11 +4384,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="189">
@@ -4396,7 +4396,7 @@
         <v>45078</v>
       </c>
       <c r="B189" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4405,11 +4405,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="190">
@@ -4417,7 +4417,7 @@
         <v>45108</v>
       </c>
       <c r="B190" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4426,11 +4426,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="191">
@@ -4438,7 +4438,7 @@
         <v>45139</v>
       </c>
       <c r="B191" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4447,11 +4447,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="192">
@@ -4459,7 +4459,7 @@
         <v>45170</v>
       </c>
       <c r="B192" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4468,11 +4468,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="193">
@@ -4480,7 +4480,7 @@
         <v>45200</v>
       </c>
       <c r="B193" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4489,11 +4489,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="194">
@@ -4501,7 +4501,7 @@
         <v>45231</v>
       </c>
       <c r="B194" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4510,11 +4510,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="195">
@@ -4522,7 +4522,7 @@
         <v>45261</v>
       </c>
       <c r="B195" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4531,11 +4531,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="196">
@@ -4543,7 +4543,7 @@
         <v>45292</v>
       </c>
       <c r="B196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4552,11 +4552,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="197">
@@ -4564,7 +4564,7 @@
         <v>45323</v>
       </c>
       <c r="B197" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4573,11 +4573,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SHORT</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="198">
@@ -4585,7 +4585,7 @@
         <v>44986</v>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4594,11 +4594,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="199">
@@ -4606,7 +4606,7 @@
         <v>44986</v>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4615,11 +4615,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="200">
@@ -4627,7 +4627,7 @@
         <v>45017</v>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4636,11 +4636,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="201">
@@ -4648,7 +4648,7 @@
         <v>45017</v>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4657,11 +4657,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="202">
@@ -4669,7 +4669,7 @@
         <v>45047</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4678,11 +4678,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="203">
@@ -4690,7 +4690,7 @@
         <v>45078</v>
       </c>
       <c r="B203" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4699,11 +4699,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="204">
@@ -4711,7 +4711,7 @@
         <v>45108</v>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4720,11 +4720,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="205">
@@ -4732,7 +4732,7 @@
         <v>45139</v>
       </c>
       <c r="B205" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4741,11 +4741,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="206">
@@ -4753,7 +4753,7 @@
         <v>45170</v>
       </c>
       <c r="B206" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4762,11 +4762,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="207">
@@ -4774,7 +4774,7 @@
         <v>45200</v>
       </c>
       <c r="B207" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4783,11 +4783,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="208">
@@ -4795,7 +4795,7 @@
         <v>45231</v>
       </c>
       <c r="B208" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4804,11 +4804,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="209">
@@ -4816,7 +4816,7 @@
         <v>45261</v>
       </c>
       <c r="B209" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4825,11 +4825,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="210">
@@ -4837,7 +4837,7 @@
         <v>45292</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -4846,11 +4846,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="211">
@@ -4858,7 +4858,7 @@
         <v>45323</v>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4867,11 +4867,11 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>BOTAS</t>
+          <t>SHORT</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="212">
@@ -4879,7 +4879,7 @@
         <v>44986</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4888,11 +4888,11 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="213">
@@ -4900,7 +4900,7 @@
         <v>44986</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4909,11 +4909,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="214">
@@ -4921,7 +4921,7 @@
         <v>45017</v>
       </c>
       <c r="B214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4930,11 +4930,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="215">
@@ -4942,7 +4942,7 @@
         <v>45017</v>
       </c>
       <c r="B215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4951,11 +4951,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="216">
@@ -4963,7 +4963,7 @@
         <v>45047</v>
       </c>
       <c r="B216" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4972,11 +4972,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="217">
@@ -4984,7 +4984,7 @@
         <v>45078</v>
       </c>
       <c r="B217" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4993,11 +4993,11 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="218">
@@ -5005,7 +5005,7 @@
         <v>45108</v>
       </c>
       <c r="B218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -5014,11 +5014,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="219">
@@ -5026,7 +5026,7 @@
         <v>45139</v>
       </c>
       <c r="B219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5035,11 +5035,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="220">
@@ -5047,7 +5047,7 @@
         <v>45170</v>
       </c>
       <c r="B220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5056,11 +5056,11 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="221">
@@ -5068,7 +5068,7 @@
         <v>45200</v>
       </c>
       <c r="B221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -5077,11 +5077,11 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="222">
@@ -5089,7 +5089,7 @@
         <v>45231</v>
       </c>
       <c r="B222" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5098,11 +5098,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="223">
@@ -5110,7 +5110,7 @@
         <v>45261</v>
       </c>
       <c r="B223" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -5119,11 +5119,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="224">
@@ -5131,7 +5131,7 @@
         <v>45292</v>
       </c>
       <c r="B224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -5140,11 +5140,11 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="225">
@@ -5161,11 +5161,11 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="226">
@@ -5182,14 +5182,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -5201,17 +5203,19 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -5220,17 +5224,19 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5239,17 +5245,19 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -5258,14 +5266,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B231" t="n">
         <v>2</v>
@@ -5277,17 +5287,19 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -5296,17 +5308,19 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -5315,17 +5329,19 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -5334,17 +5350,19 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -5353,17 +5371,19 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -5372,17 +5392,19 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -5391,17 +5413,19 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>MINIFALDA</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr"/>
+          <t>VESTIDO MANGA LARGA</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44986</v>
+        <v>45292</v>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -5410,16 +5434,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>VESTIDO MANGA LARGA</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44986</v>
+        <v>45323</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
@@ -5431,19 +5455,19 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>VESTIDO MANGA LARGA</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -5452,19 +5476,19 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -5473,19 +5497,19 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -5494,19 +5518,19 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5515,19 +5539,19 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5536,19 +5560,19 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -5557,19 +5581,19 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -5578,19 +5602,19 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B247" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -5599,19 +5623,19 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -5620,19 +5644,19 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -5641,19 +5665,19 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -5662,19 +5686,19 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5683,16 +5707,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>CAÑA CORTA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44986</v>
+        <v>45292</v>
       </c>
       <c r="B252" t="n">
         <v>2</v>
@@ -5704,16 +5728,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.13</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44986</v>
+        <v>45323</v>
       </c>
       <c r="B253" t="n">
         <v>2</v>
@@ -5725,2027 +5749,11 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>OVERALL CORTO</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B254" t="n">
-        <v>1</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E254" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B255" t="n">
-        <v>1</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E255" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B256" t="n">
-        <v>1</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E256" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B257" t="n">
-        <v>1</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B258" t="n">
-        <v>1</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E258" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="B259" t="n">
-        <v>1</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="B260" t="n">
-        <v>1</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E260" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
-        <v>45200</v>
-      </c>
-      <c r="B261" t="n">
-        <v>1</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E261" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B262" t="n">
-        <v>1</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E262" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>1</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E263" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B264" t="n">
-        <v>1</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E264" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B265" t="n">
-        <v>1</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E265" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B266" t="n">
-        <v>1</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E266" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B267" t="n">
-        <v>1</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E267" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B268" t="n">
-        <v>2</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E268" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B269" t="n">
-        <v>2</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E269" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B270" t="n">
-        <v>2</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E270" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B271" t="n">
-        <v>2</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E271" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B272" t="n">
-        <v>3</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E272" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="B273" t="n">
-        <v>3</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E273" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="B274" t="n">
-        <v>2</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E274" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
-        <v>45200</v>
-      </c>
-      <c r="B275" t="n">
-        <v>2</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E275" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B276" t="n">
-        <v>4</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E276" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B277" t="n">
-        <v>8</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E277" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B278" t="n">
-        <v>2</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E278" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B279" t="n">
-        <v>1</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>VESTIDO MANGA LARGA</t>
-        </is>
-      </c>
-      <c r="E279" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B280" t="n">
-        <v>2</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E280" t="n">
         <v>0.37</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B281" t="n">
-        <v>2</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E281" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B282" t="n">
-        <v>2</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E282" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B283" t="n">
-        <v>2</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E283" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B284" t="n">
-        <v>3</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E284" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B285" t="n">
-        <v>4</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E285" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B286" t="n">
-        <v>4</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E286" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="B287" t="n">
-        <v>4</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E287" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="B288" t="n">
-        <v>3</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E288" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
-        <v>45200</v>
-      </c>
-      <c r="B289" t="n">
-        <v>3</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E289" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B290" t="n">
-        <v>4</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E290" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B291" t="n">
-        <v>10</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E291" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B292" t="n">
-        <v>2</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E292" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B293" t="n">
-        <v>2</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>OVERALL CORTO</t>
-        </is>
-      </c>
-      <c r="E293" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B294" t="n">
-        <v>1</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E294" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B295" t="n">
-        <v>1</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E295" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B296" t="n">
-        <v>1</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E296" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B297" t="n">
-        <v>1</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E297" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B298" t="n">
-        <v>1</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E298" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B299" t="n">
-        <v>1</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E299" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B300" t="n">
-        <v>1</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E300" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="B301" t="n">
-        <v>1</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E301" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="B302" t="n">
-        <v>1</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E302" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
-        <v>45200</v>
-      </c>
-      <c r="B303" t="n">
-        <v>1</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E303" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B304" t="n">
-        <v>1</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E304" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B305" t="n">
-        <v>2</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E305" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B306" t="n">
-        <v>1</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E306" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B307" t="n">
-        <v>1</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>CAMISA MANGA SISA</t>
-        </is>
-      </c>
-      <c r="E307" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B308" t="n">
-        <v>1</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E308" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B309" t="n">
-        <v>1</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E309" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B310" t="n">
-        <v>1</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E310" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B311" t="n">
-        <v>1</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E311" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B312" t="n">
-        <v>1</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E312" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B313" t="n">
-        <v>2</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E313" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B314" t="n">
-        <v>2</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E314" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="B315" t="n">
-        <v>2</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E315" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="B316" t="n">
-        <v>2</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E316" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
-        <v>45200</v>
-      </c>
-      <c r="B317" t="n">
-        <v>2</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E317" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B318" t="n">
-        <v>2</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E318" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B319" t="n">
-        <v>2</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E319" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B320" t="n">
-        <v>1</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E320" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B321" t="n">
-        <v>1</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>TOBILLERA</t>
-        </is>
-      </c>
-      <c r="E321" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B322" t="n">
-        <v>1</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E322" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B323" t="n">
-        <v>1</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E323" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B324" t="n">
-        <v>2</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E324" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B325" t="n">
-        <v>2</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E325" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B326" t="n">
-        <v>2</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E326" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B327" t="n">
-        <v>2</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E327" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B328" t="n">
-        <v>2</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E328" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="B329" t="n">
-        <v>2</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E329" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="B330" t="n">
-        <v>1</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E330" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
-        <v>45200</v>
-      </c>
-      <c r="B331" t="n">
-        <v>2</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E331" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B332" t="n">
-        <v>2</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E332" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B333" t="n">
-        <v>5</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E333" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B334" t="n">
-        <v>2</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E334" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B335" t="n">
-        <v>1</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>SANDALIA</t>
-        </is>
-      </c>
-      <c r="E335" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B336" t="n">
-        <v>1</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E336" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B337" t="n">
-        <v>1</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E337" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B338" t="n">
-        <v>2</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E338" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B339" t="n">
-        <v>2</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E339" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B340" t="n">
-        <v>2</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E340" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="B341" t="n">
-        <v>3</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E341" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B342" t="n">
-        <v>2</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E342" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="B343" t="n">
-        <v>2</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E343" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="B344" t="n">
-        <v>3</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E344" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
-        <v>45200</v>
-      </c>
-      <c r="B345" t="n">
-        <v>3</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E345" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B346" t="n">
-        <v>4</v>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E346" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B347" t="n">
-        <v>7</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E347" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B348" t="n">
-        <v>1</v>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E348" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B349" t="n">
-        <v>1</v>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>BEBÉ NIÑA</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>OVERALL LARGO</t>
-        </is>
-      </c>
-      <c r="E349" t="n">
-        <v>0.38</v>
       </c>
     </row>
   </sheetData>
